--- a/Authentication_List.xlsx
+++ b/Authentication_List.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaibi\eclipse-workspace\SC2002\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaibi\eclipse-workspace\oop-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5D413C-024F-4DD6-A52A-9F86B1D134A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB018CF-5D68-4311-A7DD-13B08B79DB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="975" yWindow="870" windowWidth="21600" windowHeight="11295" xr2:uid="{94513BA3-3D8E-4E21-89C5-9E79C3FF6FF5}"/>
+    <workbookView xWindow="1905" yWindow="600" windowWidth="21600" windowHeight="11295" xr2:uid="{94513BA3-3D8E-4E21-89C5-9E79C3FF6FF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,91 +36,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>D001</t>
   </si>
   <si>
+    <t>P001</t>
+  </si>
+  <si>
+    <t>A001</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>P1001</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>User ID</t>
+  </si>
+  <si>
+    <t>P1002</t>
+  </si>
+  <si>
+    <t>P1003</t>
+  </si>
+  <si>
     <t>D002</t>
   </si>
   <si>
-    <t>P001</t>
-  </si>
-  <si>
-    <t>A001</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>P1001</t>
-  </si>
-  <si>
-    <t>P1002</t>
-  </si>
-  <si>
-    <t>P1003</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>Lmao1233!!!!</t>
-  </si>
-  <si>
-    <t>Lmao1233!!!!!</t>
-  </si>
-  <si>
-    <t>User ID</t>
-  </si>
-  <si>
-    <t>D004</t>
-  </si>
-  <si>
-    <t>D005</t>
-  </si>
-  <si>
-    <t>D006</t>
-  </si>
-  <si>
-    <t>D007</t>
-  </si>
-  <si>
-    <t>D01!</t>
-  </si>
-  <si>
-    <t>A002</t>
-  </si>
-  <si>
-    <t>A003</t>
-  </si>
-  <si>
-    <t>D010</t>
-  </si>
-  <si>
-    <t>A010</t>
-  </si>
-  <si>
-    <t>P009</t>
-  </si>
-  <si>
-    <t>P1010</t>
-  </si>
-  <si>
-    <t>A0056</t>
-  </si>
-  <si>
-    <t>P002</t>
-  </si>
-  <si>
-    <t>P100</t>
+    <t>DemoAdmin1!!</t>
+  </si>
+  <si>
+    <t>DemoDoctor1!!</t>
+  </si>
+  <si>
+    <t>DemoPharmacist1!!</t>
+  </si>
+  <si>
+    <t>DemoPatient1!!</t>
+  </si>
+  <si>
+    <t>DemoDoctor2!!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -486,188 +452,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{723AD227-3094-4C38-B6E0-B7AB6C9FF2B4}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s" s="0">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s" s="0">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s" s="0">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>9</v>
-      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s" s="0">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s" s="0">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s" s="0">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s" s="0">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s" s="0">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="B16" t="s" s="0">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="B17" t="s" s="0">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="B18" t="s" s="0">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s" s="0">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s" s="0">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s" s="0">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="B22" t="s" s="0">
-        <v>8</v>
+      <c r="B8" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
